--- a/GATEWAY/A1#111#DICOMDATAXX/DICOMDATA/DocViewer/1.0.0/accreditamento-checklist_V8.2.6.1.xlsx
+++ b/GATEWAY/A1#111#DICOMDATAXX/DICOMDATA/DocViewer/1.0.0/accreditamento-checklist_V8.2.6.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/arcadia/www/fse2.0/app/TEST_CASE_RSA/GIT/GATEWAY/A1#111#DICOMDATAXX/DICOMDATA/DocViewer/1.0.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9FDAC4-5159-B045-A1B8-3866E70791DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7E7935-7CE3-2340-9D54-BCEC372CF4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10560" yWindow="2100" windowWidth="29040" windowHeight="19900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,15 +58,41 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>======
-ID#AAAAzAuRGEo
-    (2023-06-14 09:12:48)
-Ove non specificate le precondizioni del caso di test possono essere recuperate nel tab "Prerequisiti"</t>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAzAuRGEo
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    (2023-06-14 09:12:48)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ove non specificate le precondizioni del caso di test possono essere recuperate nel tab "Prerequisiti"</t>
         </r>
       </text>
     </comment>
@@ -1845,24 +1871,6 @@
     <t>Correzione malformazione CDA</t>
   </si>
   <si>
-    <t>2025-10-02T14:07:43Z</t>
-  </si>
-  <si>
-    <t>50fb1c668a67a0f3aedb98a626d9a85f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.202.12345.717b197ba46c50a04e061c9b12bb1a96ad91469d59feac0b1fa06492e3abc107.ac3e0745be^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-10-03T11:14:17Z</t>
-  </si>
-  <si>
-    <t>a0d120925e9239bc022cc6afaaf93021</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.202.12345.717b197ba46c50a04e061c9b12bb1a96ad91469d59feac0b1fa06492e3abc107.35c3414789^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2025-10-07T07:08:53Z</t>
   </si>
   <si>
@@ -1876,6 +1884,24 @@
   </si>
   <si>
     <t>Verifica e risoluzione struttura xml</t>
+  </si>
+  <si>
+    <t>2025-10-25T12:36:17Z</t>
+  </si>
+  <si>
+    <t>e996675bc87ac3e0ac652f5427b5031a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.202.12345.717b197ba46c50a04e061c9b12bb1a96ad91469d59feac0b1fa06492e3abc107.833a7f2f82^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-10-25T12:40:33Z</t>
+  </si>
+  <si>
+    <t>5398998ae4d5660c9dcf81bc83662880</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.202.12345.717b197ba46c50a04e061c9b12bb1a96ad91469d59feac0b1fa06492e3abc107.5e3e63a5c4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1885,7 +1911,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2007,6 +2033,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2472,6 +2504,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2493,9 +2528,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3948,10 +3980,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L192" sqref="L192"/>
+      <selection pane="bottomRight" activeCell="I178" sqref="I178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3993,14 +4025,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="49"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4021,14 +4053,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="57" t="s">
         <v>438</v>
       </c>
-      <c r="D3" s="48"/>
+      <c r="D3" s="49"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4049,12 +4081,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="56" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="57" t="s">
         <v>439</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4076,12 +4108,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
         <v>440</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="49"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4102,8 +4134,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -10309,16 +10341,16 @@
         <v>384</v>
       </c>
       <c r="F166" s="37">
-        <v>45932</v>
+        <v>45955</v>
       </c>
       <c r="G166" s="37" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="H166" s="37" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="I166" s="42" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="J166" s="38" t="s">
         <v>64</v>
@@ -10356,16 +10388,16 @@
         <v>385</v>
       </c>
       <c r="F167" s="37">
-        <v>45933</v>
+        <v>45955</v>
       </c>
       <c r="G167" s="37" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="H167" s="37" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="I167" s="42" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="J167" s="38" t="s">
         <v>64</v>
@@ -11035,17 +11067,17 @@
       <c r="E185" s="43" t="s">
         <v>401</v>
       </c>
-      <c r="F185" s="57">
+      <c r="F185" s="45">
         <v>45937</v>
       </c>
       <c r="G185" s="35" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="H185" s="35" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="I185" s="38" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="J185" s="38" t="s">
         <v>64</v>
@@ -11059,7 +11091,7 @@
         <v>64</v>
       </c>
       <c r="O185" s="35" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="P185" s="38" t="s">
         <v>64</v>
@@ -11071,7 +11103,7 @@
         <v>228</v>
       </c>
       <c r="S185" s="35" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="T185" s="38"/>
       <c r="U185" s="35"/>
@@ -17650,6 +17682,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17907,28 +17960,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17947,31 +18004,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111#DICOMDATAXX/DICOMDATA/DocViewer/1.0.0/accreditamento-checklist_V8.2.6.1.xlsx
+++ b/GATEWAY/A1#111#DICOMDATAXX/DICOMDATA/DocViewer/1.0.0/accreditamento-checklist_V8.2.6.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/arcadia/www/fse2.0/app/TEST_CASE_RSA/GIT/GATEWAY/A1#111#DICOMDATAXX/DICOMDATA/DocViewer/1.0.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arcadia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7E7935-7CE3-2340-9D54-BCEC372CF4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89287417-6B3D-9146-B48D-E3018034F7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10560" yWindow="2100" windowWidth="29040" windowHeight="19900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1763,9 +1763,6 @@
     <t>Errore di creazione JWT contattare l'assistenza tecnica</t>
   </si>
   <si>
-    <t>Il cliente apre una segnalazione al service desk che provvederà a correggere l’errore nella creazione del JWT e ad effettuare il deploy in produzione della versione funzionante</t>
-  </si>
-  <si>
     <t>2025-09-19T10:06:08Z</t>
   </si>
   <si>
@@ -1823,9 +1820,6 @@
     <t>Errore: campi obbligatori mancanti</t>
   </si>
   <si>
-    <t>Inserimento dati mancanti da FrontEnd</t>
-  </si>
-  <si>
     <t>2025-10-01T13:45:53Z</t>
   </si>
   <si>
@@ -1838,9 +1832,6 @@
     <t>Errore prestazione assente</t>
   </si>
   <si>
-    <t>Aggiunta dati mancanti</t>
-  </si>
-  <si>
     <t>2025-10-01T14:11:30Z</t>
   </si>
   <si>
@@ -1853,9 +1844,6 @@
     <t>Quesito diagnostico non presente</t>
   </si>
   <si>
-    <t>Compilazione quesito diagnostico o eliminazione completa del nodo se il testo non è presente</t>
-  </si>
-  <si>
     <t>2025-10-02T08:45:33Z</t>
   </si>
   <si>
@@ -1868,9 +1856,6 @@
     <t>Errore struttura CDA - LegalAuthenticator</t>
   </si>
   <si>
-    <t>Correzione malformazione CDA</t>
-  </si>
-  <si>
     <t>2025-10-07T07:08:53Z</t>
   </si>
   <si>
@@ -1883,9 +1868,6 @@
     <t>CDA Malformato confidentialityCode</t>
   </si>
   <si>
-    <t>Verifica e risoluzione struttura xml</t>
-  </si>
-  <si>
     <t>2025-10-25T12:36:17Z</t>
   </si>
   <si>
@@ -1902,6 +1884,24 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.202.12345.717b197ba46c50a04e061c9b12bb1a96ad91469d59feac0b1fa06492e3abc107.5e3e63a5c4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Inserimento dati mancanti da FrontEnd e reinoltro</t>
+  </si>
+  <si>
+    <t>Aggiunta dati mancanti e reinoltro</t>
+  </si>
+  <si>
+    <t>Compilazione quesito diagnostico o eliminazione completa del nodo se il testo non è presente e reinoltro</t>
+  </si>
+  <si>
+    <t>Correzione malformazione CDA e reinoltro</t>
+  </si>
+  <si>
+    <t>Verifica e risoluzione struttura xml e reinoltro</t>
+  </si>
+  <si>
+    <t>Il cliente apre una segnalazione al service desk che provvederà a correggere l’errore nella creazione del JWT e ad effettuare il deploy in produzione della versione funzionante e a reinoltrare</t>
   </si>
 </sst>
 </file>
@@ -3980,10 +3980,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="P15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I178" sqref="I178"/>
+      <selection pane="bottomRight" activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4504,10 +4504,10 @@
         <v>228</v>
       </c>
       <c r="R15" s="38" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="S15" s="38" t="s">
-        <v>445</v>
+        <v>491</v>
       </c>
       <c r="T15" s="38"/>
       <c r="U15" s="39"/>
@@ -4795,10 +4795,10 @@
         <v>45919</v>
       </c>
       <c r="G23" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="H23" s="37" t="s">
         <v>446</v>
-      </c>
-      <c r="H23" s="37" t="s">
-        <v>447</v>
       </c>
       <c r="I23" s="42" t="s">
         <v>443</v>
@@ -4824,10 +4824,10 @@
         <v>228</v>
       </c>
       <c r="R23" s="38" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="S23" s="38" t="s">
-        <v>445</v>
+        <v>491</v>
       </c>
       <c r="T23" s="38"/>
       <c r="U23" s="39"/>
@@ -5137,7 +5137,7 @@
         <v>64</v>
       </c>
       <c r="O31" s="38" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P31" s="38" t="s">
         <v>228</v>
@@ -5149,7 +5149,7 @@
         <v>228</v>
       </c>
       <c r="S31" s="38" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T31" s="38"/>
       <c r="U31" s="39" t="s">
@@ -8294,13 +8294,13 @@
         <v>45919</v>
       </c>
       <c r="G116" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="H116" s="37" t="s">
         <v>450</v>
       </c>
-      <c r="H116" s="37" t="s">
+      <c r="I116" s="42" t="s">
         <v>451</v>
-      </c>
-      <c r="I116" s="42" t="s">
-        <v>452</v>
       </c>
       <c r="J116" s="38" t="s">
         <v>64</v>
@@ -8314,7 +8314,7 @@
         <v>64</v>
       </c>
       <c r="O116" s="38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P116" s="38" t="s">
         <v>64</v>
@@ -8323,10 +8323,10 @@
         <v>228</v>
       </c>
       <c r="R116" s="38" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="S116" s="38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="T116" s="38"/>
       <c r="U116" s="39"/>
@@ -8355,13 +8355,13 @@
         <v>45931</v>
       </c>
       <c r="G117" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="H117" s="37" t="s">
         <v>455</v>
       </c>
-      <c r="H117" s="37" t="s">
+      <c r="I117" s="42" t="s">
         <v>456</v>
-      </c>
-      <c r="I117" s="42" t="s">
-        <v>457</v>
       </c>
       <c r="J117" s="38" t="s">
         <v>64</v>
@@ -8375,7 +8375,7 @@
         <v>64</v>
       </c>
       <c r="O117" s="38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P117" s="38" t="s">
         <v>64</v>
@@ -8384,10 +8384,10 @@
         <v>228</v>
       </c>
       <c r="R117" s="38" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="S117" s="38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="T117" s="38"/>
       <c r="U117" s="39"/>
@@ -8416,13 +8416,13 @@
         <v>45931</v>
       </c>
       <c r="G118" s="37" t="s">
+        <v>457</v>
+      </c>
+      <c r="H118" s="37" t="s">
         <v>458</v>
       </c>
-      <c r="H118" s="37" t="s">
+      <c r="I118" s="42" t="s">
         <v>459</v>
-      </c>
-      <c r="I118" s="42" t="s">
-        <v>460</v>
       </c>
       <c r="J118" s="38" t="s">
         <v>64</v>
@@ -8436,7 +8436,7 @@
         <v>64</v>
       </c>
       <c r="O118" s="38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P118" s="38" t="s">
         <v>64</v>
@@ -8445,10 +8445,10 @@
         <v>228</v>
       </c>
       <c r="R118" s="38" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="S118" s="38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="T118" s="38"/>
       <c r="U118" s="39"/>
@@ -8518,13 +8518,13 @@
         <v>45931</v>
       </c>
       <c r="G120" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="H120" s="37" t="s">
         <v>461</v>
       </c>
-      <c r="H120" s="37" t="s">
+      <c r="I120" s="42" t="s">
         <v>462</v>
-      </c>
-      <c r="I120" s="42" t="s">
-        <v>463</v>
       </c>
       <c r="J120" s="38" t="s">
         <v>64</v>
@@ -8538,7 +8538,7 @@
         <v>64</v>
       </c>
       <c r="O120" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P120" s="38" t="s">
         <v>64</v>
@@ -8547,10 +8547,10 @@
         <v>228</v>
       </c>
       <c r="R120" s="38" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="S120" s="38" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="T120" s="38"/>
       <c r="U120" s="39"/>
@@ -8579,13 +8579,13 @@
         <v>45931</v>
       </c>
       <c r="G121" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="H121" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="I121" s="42" t="s">
         <v>466</v>
-      </c>
-      <c r="H121" s="37" t="s">
-        <v>467</v>
-      </c>
-      <c r="I121" s="42" t="s">
-        <v>468</v>
       </c>
       <c r="J121" s="38" t="s">
         <v>64</v>
@@ -8599,7 +8599,7 @@
         <v>64</v>
       </c>
       <c r="O121" s="38" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P121" s="38" t="s">
         <v>64</v>
@@ -8608,10 +8608,10 @@
         <v>228</v>
       </c>
       <c r="R121" s="38" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="S121" s="38" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="T121" s="38"/>
       <c r="U121" s="39"/>
@@ -8681,13 +8681,13 @@
         <v>45931</v>
       </c>
       <c r="G123" s="37" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H123" s="37" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I123" s="42" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="J123" s="38" t="s">
         <v>64</v>
@@ -8701,7 +8701,7 @@
         <v>64</v>
       </c>
       <c r="O123" s="38" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="P123" s="38" t="s">
         <v>64</v>
@@ -8710,10 +8710,10 @@
         <v>228</v>
       </c>
       <c r="R123" s="38" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="S123" s="38" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="T123" s="38"/>
       <c r="U123" s="39"/>
@@ -8988,13 +8988,13 @@
         <v>45932</v>
       </c>
       <c r="G130" s="37" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H130" s="37" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="I130" s="42" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="J130" s="38" t="s">
         <v>64</v>
@@ -9008,7 +9008,7 @@
         <v>64</v>
       </c>
       <c r="O130" s="38" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="P130" s="38" t="s">
         <v>64</v>
@@ -9017,10 +9017,10 @@
         <v>228</v>
       </c>
       <c r="R130" s="38" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="S130" s="38" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="T130" s="38"/>
       <c r="U130" s="39"/>
@@ -10344,13 +10344,13 @@
         <v>45955</v>
       </c>
       <c r="G166" s="37" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="H166" s="37" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="I166" s="42" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="J166" s="38" t="s">
         <v>64</v>
@@ -10391,13 +10391,13 @@
         <v>45955</v>
       </c>
       <c r="G167" s="37" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="H167" s="37" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="I167" s="42" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="J167" s="38" t="s">
         <v>64</v>
@@ -11071,13 +11071,13 @@
         <v>45937</v>
       </c>
       <c r="G185" s="35" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H185" s="35" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="I185" s="38" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="J185" s="38" t="s">
         <v>64</v>
@@ -11091,7 +11091,7 @@
         <v>64</v>
       </c>
       <c r="O185" s="35" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="P185" s="38" t="s">
         <v>64</v>
@@ -11100,10 +11100,10 @@
         <v>228</v>
       </c>
       <c r="R185" s="38" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="S185" s="35" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="T185" s="38"/>
       <c r="U185" s="35"/>
@@ -17682,6 +17682,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
@@ -17691,15 +17700,6 @@
     <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17961,6 +17961,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17973,14 +17981,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
